--- a/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,21 +1137,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1161,33 +1161,33 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1337,7 +1337,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1437,7 +1437,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1537,7 +1537,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1637,11 +1637,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1681,13 +1681,13 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1737,11 +1737,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1781,13 +1781,13 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1937,57 +1937,57 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2087,11 +2087,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2101,57 +2101,57 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2181,13 +2181,13 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2237,7 +2237,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2296,22 +2296,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,7 +2337,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2351,27 +2351,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2381,13 +2381,13 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2421,23 +2421,23 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,11 +2487,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2501,12 +2501,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2531,13 +2531,13 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2587,16 +2587,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2626,22 +2626,22 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2676,18 +2676,18 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2737,31 +2737,31 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2776,32 +2776,32 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2811,33 +2811,33 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2887,7 +2887,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2896,22 +2896,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2937,7 +2937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2987,7 +2987,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3037,41 +3037,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3081,13 +3081,13 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3137,7 +3137,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3187,7 +3187,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3216,17 +3216,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3287,7 +3287,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3337,16 +3337,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3381,13 +3381,13 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3466,17 +3466,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3487,7 +3487,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3537,7 +3537,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3587,16 +3587,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3616,28 +3616,28 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3687,7 +3687,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3787,7 +3787,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3901,22 +3901,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3937,7 +3937,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3987,7 +3987,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4087,11 +4087,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4116,42 +4116,42 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4171,23 +4171,23 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4237,7 +4237,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4287,16 +4287,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4331,13 +4331,13 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4387,11 +4387,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4416,37 +4416,37 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4471,23 +4471,23 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4496,12 +4496,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4511,12 +4511,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4526,18 +4526,18 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4571,12 +4571,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4587,21 +4587,21 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4626,27 +4626,27 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4676,27 +4676,27 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4776,18 +4776,18 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4837,7 +4837,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4887,11 +4887,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4931,13 +4931,13 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4987,36 +4987,36 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5026,18 +5026,18 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5137,11 +5137,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5176,18 +5176,18 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5287,7 +5287,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5337,7 +5337,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5387,7 +5387,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5437,7 +5437,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5537,7 +5537,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5587,7 +5587,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5637,7 +5637,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5787,7 +5787,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5987,7 +5987,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5996,22 +5996,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6037,16 +6037,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6071,23 +6071,23 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6096,22 +6096,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6137,57 +6137,57 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6237,7 +6237,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6246,12 +6246,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6287,7 +6287,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6437,7 +6437,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6446,22 +6446,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6487,16 +6487,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6531,13 +6531,13 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -6546,22 +6546,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6571,12 +6571,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6587,7 +6587,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -6596,22 +6596,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6621,12 +6621,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6637,7 +6637,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6666,17 +6666,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6687,7 +6687,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6737,7 +6737,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -6746,12 +6746,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6787,7 +6787,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6887,16 +6887,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6926,18 +6926,18 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7037,16 +7037,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7081,13 +7081,13 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7237,7 +7237,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7287,7 +7287,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -7301,12 +7301,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7316,17 +7316,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7337,7 +7337,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7366,12 +7366,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7437,7 +7437,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7487,11 +7487,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7521,23 +7521,23 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -7561,17 +7561,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7587,7 +7587,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7637,11 +7637,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7681,13 +7681,13 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7821,12 +7821,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7837,11 +7837,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7881,13 +7881,13 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7911,17 +7911,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7937,7 +7937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -7961,12 +7961,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7987,7 +7987,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -8006,12 +8006,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8037,11 +8037,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -8071,23 +8071,23 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -8096,32 +8096,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8137,7 +8137,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8187,7 +8187,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8237,11 +8237,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -8256,12 +8256,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8281,13 +8281,13 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8337,7 +8337,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8437,7 +8437,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8487,16 +8487,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8506,12 +8506,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8521,23 +8521,23 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -8546,12 +8546,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8561,22 +8561,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8587,7 +8587,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8637,7 +8637,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8687,11 +8687,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8726,18 +8726,18 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -8746,12 +8746,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8761,12 +8761,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8787,7 +8787,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8837,7 +8837,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -8906,17 +8906,17 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8937,7 +8937,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -8971,12 +8971,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8987,7 +8987,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9037,7 +9037,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -9046,12 +9046,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9087,7 +9087,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9137,7 +9137,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9187,7 +9187,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9237,7 +9237,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -9261,22 +9261,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9287,7 +9287,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9337,7 +9337,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9387,7 +9387,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -9401,12 +9401,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9416,17 +9416,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9437,7 +9437,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -9456,12 +9456,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9487,11 +9487,11 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9516,12 +9516,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9531,17 +9531,17 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9571,32 +9571,32 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9626,27 +9626,27 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9676,18 +9676,18 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -9721,12 +9721,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9737,7 +9737,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9787,7 +9787,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9837,7 +9837,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9861,17 +9861,17 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9887,7 +9887,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -9911,12 +9911,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9937,7 +9937,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -9971,12 +9971,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9987,7 +9987,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -10016,17 +10016,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10037,7 +10037,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -10121,12 +10121,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10137,7 +10137,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -10151,12 +10151,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10187,7 +10187,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10216,17 +10216,17 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10237,16 +10237,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10276,27 +10276,27 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10331,17 +10331,17 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10381,22 +10381,22 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10416,28 +10416,28 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10487,7 +10487,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10516,17 +10516,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10537,7 +10537,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -10546,32 +10546,32 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -10587,7 +10587,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10687,7 +10687,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -10721,12 +10721,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10737,7 +10737,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -10771,12 +10771,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10787,7 +10787,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10837,7 +10837,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10887,7 +10887,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10937,7 +10937,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -10987,7 +10987,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -11071,12 +11071,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11087,7 +11087,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -11116,12 +11116,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -11137,7 +11137,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11187,11 +11187,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -11226,18 +11226,18 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11287,7 +11287,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -11296,17 +11296,17 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -11337,11 +11337,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -11376,18 +11376,18 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -11406,12 +11406,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11437,11 +11437,11 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11476,18 +11476,18 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11537,7 +11537,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -11551,17 +11551,17 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -11571,12 +11571,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11587,7 +11587,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -11637,7 +11637,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11687,7 +11687,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -11721,12 +11721,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11737,7 +11737,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -11787,16 +11787,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11821,65 +11821,965 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
+        <v>232</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>233</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>235</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>236</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>237</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>238</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>239</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>240</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>241</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>243</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>244</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>245</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>246</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>247</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>248</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>249</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>250</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>251</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
         <v>252</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="17">
   <si>
     <t>Código IE</t>
   </si>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
         <v>12</v>
@@ -8189,27 +8189,27 @@
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G243" t="s">
         <v>14</v>
       </c>
       <c r="H243" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I243" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C244" t="s">
         <v>12</v>
@@ -8218,33 +8218,33 @@
         <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I244" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D245" t="s">
         <v>13</v>
@@ -8253,13 +8253,13 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G245" t="s">
         <v>10</v>
       </c>
       <c r="H245" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I245" t="s">
         <v>10</v>
@@ -8270,16 +8270,16 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D246" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
@@ -8288,13 +8288,13 @@
         <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H246" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I246" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J246" t="s">
         <v>11</v>
@@ -8302,19 +8302,19 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -8323,10 +8323,10 @@
         <v>14</v>
       </c>
       <c r="H247" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I247" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J247" t="s">
         <v>11</v>
@@ -8334,13 +8334,13 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D248" t="s">
         <v>13</v>
@@ -8349,13 +8349,13 @@
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G248" t="s">
         <v>14</v>
       </c>
       <c r="H248" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I248" t="s">
         <v>10</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -8378,7 +8378,7 @@
         <v>13</v>
       </c>
       <c r="E249" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F249" t="s">
         <v>13</v>
@@ -8387,10 +8387,10 @@
         <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I249" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J249" t="s">
         <v>11</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -8410,7 +8410,7 @@
         <v>13</v>
       </c>
       <c r="E250" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F250" t="s">
         <v>13</v>
@@ -8419,10 +8419,10 @@
         <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I250" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J250" t="s">
         <v>11</v>
@@ -8430,19 +8430,19 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
         <v>13</v>
       </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F251" t="s">
         <v>13</v>
@@ -8451,44 +8451,76 @@
         <v>14</v>
       </c>
       <c r="H251" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I251" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" t="s">
+        <v>10</v>
+      </c>
+      <c r="I252" t="s">
+        <v>16</v>
+      </c>
+      <c r="J252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253">
         <v>252</v>
       </c>
-      <c r="B252" t="s">
-        <v>11</v>
-      </c>
-      <c r="C252" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" t="s">
-        <v>13</v>
-      </c>
-      <c r="E252" t="s">
-        <v>14</v>
-      </c>
-      <c r="F252" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" t="s">
-        <v>14</v>
-      </c>
-      <c r="H252" t="s">
-        <v>15</v>
-      </c>
-      <c r="I252" t="s">
-        <v>10</v>
-      </c>
-      <c r="J252" t="s">
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" t="s">
+        <v>15</v>
+      </c>
+      <c r="I253" t="s">
+        <v>10</v>
+      </c>
+      <c r="J253" t="s">
         <v>11</v>
       </c>
     </row>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
@@ -1649,19 +1649,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1673,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="J39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:10">

--- a/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 8.xlsx
@@ -1489,31 +1489,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10">
